--- a/data/chevron.xlsx
+++ b/data/chevron.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dxta\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lasaf\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{56D028E8-FDFB-4FCD-A8F2-E8D245B0E304}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4650176-9C25-4696-BBC0-C45C04BDC483}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="4" xr2:uid="{DA872241-5938-4975-B669-1DAED734A321}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" activeTab="2" xr2:uid="{DA872241-5938-4975-B669-1DAED734A321}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="103">
   <si>
     <t>Facility</t>
   </si>
@@ -338,6 +338,9 @@
   </si>
   <si>
     <t>HVAC997</t>
+  </si>
+  <si>
+    <t>conveyor</t>
   </si>
 </sst>
 </file>
@@ -734,15 +737,15 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,7 +759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -770,7 +773,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -784,12 +787,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>13</v>
       </c>
@@ -808,14 +811,14 @@
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
@@ -841,7 +844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>21</v>
       </c>
@@ -867,7 +870,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>23</v>
       </c>
@@ -893,7 +896,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="15" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>25</v>
       </c>
@@ -919,7 +922,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>27</v>
       </c>
@@ -945,7 +948,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" ht="15" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>29</v>
       </c>
@@ -971,7 +974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>30</v>
       </c>
@@ -997,7 +1000,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>32</v>
       </c>
@@ -1023,7 +1026,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>34</v>
       </c>
@@ -1049,7 +1052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="15" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>36</v>
       </c>
@@ -1075,7 +1078,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="15" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>38</v>
       </c>
@@ -1111,17 +1114,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14B3A477-3811-4597-BD1C-66A9637D67CF}">
   <dimension ref="B1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1132,7 +1135,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>43</v>
       </c>
@@ -1143,7 +1146,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>46</v>
       </c>
@@ -1154,7 +1157,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>48</v>
       </c>
@@ -1165,7 +1168,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>49</v>
       </c>
@@ -1176,7 +1179,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>51</v>
       </c>
@@ -1187,7 +1190,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>53</v>
       </c>
@@ -1198,7 +1201,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>55</v>
       </c>
@@ -1209,7 +1212,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>56</v>
       </c>
@@ -1220,7 +1223,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>57</v>
       </c>
@@ -1231,7 +1234,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>58</v>
       </c>
@@ -1254,13 +1257,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1271,7 +1274,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>16</v>
       </c>
@@ -1282,7 +1285,7 @@
         <v>-95.372003000000007</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>17</v>
       </c>
@@ -1293,7 +1296,7 @@
         <v>-95.409329</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>18</v>
       </c>
@@ -1304,7 +1307,7 @@
         <v>-95.401964000000007</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>19</v>
       </c>
@@ -1315,7 +1318,7 @@
         <v>-95.399359000000004</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -1335,23 +1338,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F32FF5-CC5C-41C1-BDFE-3C5288199775}">
   <dimension ref="A2:N44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>61</v>
       </c>
@@ -1374,7 +1377,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3">
         <v>1001</v>
@@ -1399,7 +1402,7 @@
       </c>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4">
         <v>1002</v>
@@ -1408,7 +1411,7 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
         <v>66</v>
@@ -1424,7 +1427,7 @@
       </c>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5">
         <v>1003</v>
@@ -1448,7 +1451,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6">
         <v>1004</v>
@@ -1472,7 +1475,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7">
         <v>1005</v>
@@ -1496,7 +1499,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8">
         <v>1006</v>
@@ -1522,7 +1525,7 @@
       <c r="K8" s="7"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9">
         <v>1007</v>
@@ -1548,7 +1551,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10">
         <v>1008</v>
@@ -1572,7 +1575,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11">
         <v>1009</v>
@@ -1596,7 +1599,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12">
         <v>1010</v>
@@ -1620,7 +1623,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13">
         <v>1011</v>
@@ -1648,7 +1651,7 @@
       <c r="M13" s="3"/>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14">
         <v>1012</v>
@@ -1675,7 +1678,7 @@
       <c r="M14" s="3"/>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15">
         <v>1013</v>
@@ -1702,7 +1705,7 @@
       <c r="M15" s="3"/>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16">
         <v>1014</v>
@@ -1729,7 +1732,7 @@
       <c r="M16" s="3"/>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17">
         <v>1015</v>
@@ -1738,7 +1741,7 @@
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="E17" t="s">
         <v>87</v>
@@ -1756,7 +1759,7 @@
       <c r="M17" s="3"/>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18">
         <v>1016</v>
@@ -1782,7 +1785,7 @@
       <c r="K18" s="6"/>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19">
         <v>1017</v>
@@ -1808,7 +1811,7 @@
       <c r="K19" s="6"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20">
         <v>1018</v>
@@ -1834,7 +1837,7 @@
       <c r="K20" s="6"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21">
         <v>1019</v>
@@ -1861,7 +1864,7 @@
       <c r="M21" s="3"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22">
         <v>1020</v>
@@ -1887,7 +1890,7 @@
       <c r="K22" s="6"/>
       <c r="N22" s="2"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23">
         <v>1021</v>
@@ -1911,7 +1914,7 @@
         <v>43358.336805555555</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24">
         <v>1022</v>
@@ -1920,7 +1923,7 @@
         <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="E24" t="s">
         <v>94</v>
@@ -1935,7 +1938,7 @@
         <v>43358.121527777781</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25">
         <v>1023</v>
@@ -1960,7 +1963,7 @@
       </c>
       <c r="M25" s="3"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26">
         <v>1024</v>
@@ -1984,7 +1987,7 @@
         <v>43358.765972222223</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27">
         <v>1025</v>
@@ -2008,7 +2011,7 @@
         <v>43357.30972222222</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28">
         <v>1026</v>
@@ -2032,7 +2035,7 @@
         <v>43355.398611111108</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29">
         <v>1027</v>
@@ -2057,7 +2060,7 @@
       </c>
       <c r="M29" s="3"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30">
         <v>1028</v>
@@ -2082,7 +2085,7 @@
       </c>
       <c r="M30" s="3"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="11"/>
       <c r="B31">
         <v>1029</v>
@@ -2106,7 +2109,7 @@
         <v>43356.647222222222</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32">
         <v>1030</v>
@@ -2130,41 +2133,41 @@
         <v>43356.431250000001</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="15" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="M33" s="3"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="11"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="11"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="11"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="11"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="11"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="11"/>
     </row>
   </sheetData>
@@ -2174,21 +2177,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000DDC701B4642764F93B0C996834AF5C7" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7ba1005b60fccd023c3316c347e5bac5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6c5579d5-a01f-4a8f-91a4-3da86c4ab182" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f4f48eed001f7d7f93980a4b2998ff55" ns2:_="">
     <xsd:import namespace="6c5579d5-a01f-4a8f-91a4-3da86c4ab182"/>
@@ -2320,10 +2308,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4207C8EB-E1DD-4B19-B2B0-6A4E9013FDCE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{817E8B64-DE18-4527-80CB-2270F2F430A8}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6c5579d5-a01f-4a8f-91a4-3da86c4ab182"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2345,19 +2358,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{817E8B64-DE18-4527-80CB-2270F2F430A8}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4207C8EB-E1DD-4B19-B2B0-6A4E9013FDCE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6c5579d5-a01f-4a8f-91a4-3da86c4ab182"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>